--- a/test_info/data/HU1-002/CP-006/objects.xlsx
+++ b/test_info/data/HU1-002/CP-006/objects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_piedrahita\Documents\jp\bvc\tests\A2censoTest\test_info\data\HU1-002\CP-006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2348AA1-B460-47FC-8303-161B399A779A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C11E8A8-FDC8-4857-8737-357D9229783F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
   </bookViews>
@@ -456,12 +456,13 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
